--- a/Data/Sample output/OneMg/Consolidated/OneMG_Consolidated.xlsx
+++ b/Data/Sample output/OneMg/Consolidated/OneMG_Consolidated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\eclipse-workspace\QATasks\Data\Sample output\OneMg\Consolidated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\eclipse-workspace\QATasks_DockerParallel\Data\Sample output\OneMg\Consolidated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25992076-42A3-4AE3-914A-12AB9076AAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714A86FC-990E-4099-9B2E-7FDB2DC12C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14831,7 +14831,7 @@
   <dimension ref="A1:J1247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E369" sqref="E369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54478,6 +54478,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1247" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>